--- a/src/data/questions.xlsx
+++ b/src/data/questions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>题型</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>错</t>
+  </si>
+  <si>
+    <t>多选题</t>
+  </si>
+  <si>
+    <t>请选出下列所有编程语言</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
@@ -92,7 +104,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,13 +116,6 @@
       <sz val="14"/>
       <name val="SimSun"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -568,48 +573,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -619,97 +627,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,13 +1091,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.4444444444444" style="1" customWidth="1"/>
@@ -1102,7 +1107,7 @@
     <col min="6" max="6" width="4.66666666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.66666666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.66666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.66666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.66666666666667" style="1" customWidth="1"/>
     <col min="10" max="10" width="3" style="1" customWidth="1"/>
     <col min="11" max="16384" width="6" customWidth="1"/>
   </cols>
@@ -1186,6 +1191,35 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/questions.xlsx
+++ b/src/data/questions.xlsx
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" outlineLevelRow="3"/>
